--- a/Assignment1_VuKimAnh_MiddleTerm_V2.xlsx
+++ b/Assignment1_VuKimAnh_MiddleTerm_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitonl\NashTechHW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AFF9BE-A943-4E00-9AC3-4ACAEAC89D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ABFC49-54AD-49D0-A8F2-4C1C57110226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5412" yWindow="504" windowWidth="18072" windowHeight="12636" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="4" r:id="rId1"/>
@@ -973,15 +973,6 @@
     <t>Verify initial status of big photo frame must be first photo in list</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify button next status when there is 1 photo in list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify button previous status when there is 1 photo in list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify button next status when there are 2 photos in list </t>
-  </si>
-  <si>
     <t>Verify the picture show on big photo frame when click directly to any photo in small list</t>
   </si>
   <si>
@@ -1003,9 +994,6 @@
     <t>Verify view when photo list has 0 photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify button previous status when there are 2 photos in list </t>
-  </si>
-  <si>
     <t>Verify displaying comma exactly when original price is 1,000,000</t>
   </si>
   <si>
@@ -1058,6 +1046,18 @@
   </si>
   <si>
     <t>Verify price down to 1 if discounted price has decimal part &lt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify button next status is disable when there is 1 photo in list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify button previous status is disable when there is 1 photo in list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify button next status is enable from photo 1 when there are 2 photos in list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify button previous status is enable from photo 2 when there are 2 photos in list </t>
   </si>
 </sst>
 </file>
@@ -2496,6 +2496,16 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="16" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2574,37 +2584,79 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2613,9 +2665,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2628,64 +2677,15 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="background" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3446,37 +3446,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="171" t="s">
+      <c r="B5" s="174"/>
+      <c r="C5" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="166" t="s">
+      <c r="B6" s="177"/>
+      <c r="C6" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -3488,14 +3488,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="144" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
     </row>
     <row r="9" spans="1:6" s="144" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="145" t="s">
@@ -3552,14 +3552,14 @@
       <c r="F12" s="146"/>
     </row>
     <row r="13" spans="1:6" s="144" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -3682,36 +3682,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="177" t="s">
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="177"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="178" t="s">
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="150"/>
@@ -3731,65 +3731,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="184"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -3811,65 +3811,65 @@
       <c r="A14" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="132"/>
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="187"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="132"/>
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
     </row>
     <row r="19" spans="1:14" ht="22.8">
       <c r="A19" s="4" t="s">
@@ -3880,40 +3880,40 @@
       <c r="A20" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="183"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="187"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="183"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="187"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="181" t="s">
+      <c r="B22" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="183"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="187"/>
     </row>
     <row r="24" spans="1:14" ht="22.8">
       <c r="A24" s="4" t="s">
@@ -3972,11 +3972,11 @@
       <c r="N27" s="68"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -4053,14 +4053,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.6">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -4246,12 +4246,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="24.6">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="153"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -4412,18 +4412,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="13.8">
-      <c r="A16" s="187" t="s">
+      <c r="A16" s="191" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="187"/>
+      <c r="B16" s="191"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="188"/>
+      <c r="B17" s="192"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4467,10 +4467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="198"/>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
+      <c r="A1" s="197"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -4479,13 +4479,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="194"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="203"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -4494,9 +4494,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="26.4" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="194"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="203"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -4507,11 +4507,11 @@
       <c r="A4" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="200" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -4525,9 +4525,9 @@
       <c r="A5" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -4541,9 +4541,9 @@
       <c r="A6" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -4554,11 +4554,11 @@
       <c r="A7" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="200" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -4570,11 +4570,11 @@
       <c r="A8" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="200">
+      <c r="B8" s="201">
         <v>44905</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -4717,11 +4717,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="202" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39.6">
@@ -4755,11 +4755,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="192"/>
-      <c r="D18" s="193"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
       <c r="E18" s="65"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -4768,11 +4768,11 @@
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="65"/>
-      <c r="B19" s="191" t="s">
+      <c r="B19" s="194" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
       <c r="E19" s="65"/>
       <c r="F19" s="66"/>
       <c r="G19" s="66"/>
@@ -4784,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="53"/>
@@ -4800,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="59"/>
@@ -4816,7 +4816,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C22" s="52"/>
       <c r="D22" s="60"/>
@@ -4831,7 +4831,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C23" s="52"/>
       <c r="D23" s="60"/>
@@ -4847,7 +4847,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="54"/>
@@ -4863,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="54"/>
@@ -4879,7 +4879,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C26" s="52"/>
       <c r="D26" s="60"/>
@@ -4907,11 +4907,11 @@
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="75"/>
-      <c r="B28" s="191" t="s">
+      <c r="B28" s="194" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="192"/>
-      <c r="D28" s="193"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="67"/>
       <c r="F28" s="64"/>
       <c r="G28" s="64"/>
@@ -4924,7 +4924,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="53"/>
@@ -4940,7 +4940,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="59"/>
@@ -4956,7 +4956,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="53"/>
@@ -4972,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="60"/>
@@ -4988,7 +4988,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="54"/>
@@ -5004,7 +5004,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="53"/>
@@ -5020,7 +5020,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
@@ -5052,7 +5052,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="54"/>
@@ -5068,7 +5068,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="54"/>
@@ -5084,7 +5084,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="54"/>
@@ -5100,7 +5100,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="54"/>
@@ -5110,18 +5110,18 @@
       <c r="H40" s="52"/>
       <c r="I40" s="62"/>
     </row>
-    <row r="41" spans="1:9" s="227" customFormat="1" ht="13.8">
-      <c r="A41" s="224"/>
-      <c r="B41" s="191" t="s">
+    <row r="41" spans="1:9" s="167" customFormat="1" ht="13.8">
+      <c r="A41" s="164"/>
+      <c r="B41" s="194" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="192"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="226"/>
-      <c r="F41" s="225"/>
-      <c r="G41" s="225"/>
-      <c r="H41" s="225"/>
-      <c r="I41" s="224"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="164"/>
     </row>
     <row r="42" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A42" s="62">
@@ -5171,18 +5171,18 @@
       <c r="H44" s="52"/>
       <c r="I44" s="62"/>
     </row>
-    <row r="45" spans="1:9" s="227" customFormat="1" ht="13.8">
-      <c r="A45" s="224"/>
-      <c r="B45" s="191" t="s">
+    <row r="45" spans="1:9" s="167" customFormat="1" ht="13.8">
+      <c r="A45" s="164"/>
+      <c r="B45" s="194" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="192"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="226"/>
-      <c r="F45" s="225"/>
-      <c r="G45" s="225"/>
-      <c r="H45" s="225"/>
-      <c r="I45" s="224"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="164"/>
     </row>
     <row r="46" spans="1:9" s="48" customFormat="1" ht="28.8" customHeight="1">
       <c r="A46" s="62">
@@ -5206,7 +5206,7 @@
         <v>24</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C47" s="52"/>
       <c r="D47" s="54"/>
@@ -5222,7 +5222,7 @@
         <v>25</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C48" s="52"/>
       <c r="D48" s="54"/>
@@ -5238,7 +5238,7 @@
         <v>26</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C49" s="52"/>
       <c r="D49" s="54"/>
@@ -5254,7 +5254,7 @@
         <v>27</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C50" s="52"/>
       <c r="D50" s="54"/>
@@ -5270,7 +5270,7 @@
         <v>28</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C51" s="52"/>
       <c r="D51" s="54"/>
@@ -5286,7 +5286,7 @@
         <v>29</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C52" s="52"/>
       <c r="D52" s="54"/>
@@ -5302,7 +5302,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="54"/>
@@ -5318,7 +5318,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="54"/>
@@ -5334,7 +5334,7 @@
         <v>32</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C55" s="52"/>
       <c r="D55" s="54"/>
@@ -5350,7 +5350,7 @@
         <v>33</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C56" s="52"/>
       <c r="D56" s="54"/>
@@ -5366,7 +5366,7 @@
         <v>34</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C57" s="52"/>
       <c r="D57" s="54"/>
@@ -5378,13 +5378,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B28:D28"/>
@@ -5393,6 +5386,13 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -5449,13 +5449,13 @@
     </row>
     <row r="2" spans="1:12" s="82" customFormat="1" ht="24.6">
       <c r="A2" s="81"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="207" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
       <c r="H2" s="83" t="s">
         <v>105</v>
       </c>
@@ -5466,15 +5466,15 @@
     </row>
     <row r="3" spans="1:12" s="82" customFormat="1" ht="22.8">
       <c r="A3" s="81"/>
-      <c r="C3" s="220" t="s">
+      <c r="C3" s="208" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="220"/>
+      <c r="D3" s="208"/>
       <c r="E3" s="154"/>
-      <c r="F3" s="221" t="s">
+      <c r="F3" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="221"/>
+      <c r="G3" s="209"/>
       <c r="H3" s="84"/>
       <c r="I3" s="84"/>
       <c r="J3" s="85"/>
@@ -5499,10 +5499,10 @@
       <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="203"/>
+      <c r="C6" s="210"/>
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
@@ -5643,11 +5643,11 @@
       <c r="G12" s="96"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B13" s="203" t="s">
+      <c r="B13" s="210" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
       <c r="E13" s="92"/>
       <c r="F13" s="92"/>
       <c r="G13" s="93"/>
@@ -5794,11 +5794,11 @@
       <c r="G20" s="96"/>
     </row>
     <row r="21" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="210" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
       <c r="E21" s="92"/>
       <c r="F21" s="92"/>
       <c r="G21" s="93"/>
@@ -5844,10 +5844,10 @@
       <c r="F24" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="222" t="s">
+      <c r="G24" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="223"/>
+      <c r="H24" s="212"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="98">
@@ -5872,8 +5872,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G25" s="214"/>
-      <c r="H25" s="215"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="206"/>
     </row>
     <row r="26" spans="1:12" ht="20.25" customHeight="1">
       <c r="A26" s="98">
@@ -5898,8 +5898,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G26" s="214"/>
-      <c r="H26" s="215"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="206"/>
     </row>
     <row r="27" spans="1:12" ht="20.25" customHeight="1">
       <c r="A27" s="98">
@@ -5924,8 +5924,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="214"/>
-      <c r="H27" s="215"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="206"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="98">
@@ -5950,8 +5950,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="214"/>
-      <c r="H28" s="215"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="206"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="98"/>
@@ -5972,8 +5972,8 @@
         <f>SUM(F25:F28)</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="214"/>
-      <c r="H29" s="215"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="206"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="104"/>
@@ -6011,10 +6011,10 @@
       <c r="E32" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="208" t="s">
+      <c r="F32" s="213" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="210"/>
+      <c r="G32" s="214"/>
     </row>
     <row r="33" spans="1:12" s="123" customFormat="1" ht="14.4">
       <c r="A33" s="119"/>
@@ -6030,8 +6030,8 @@
       <c r="E33" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="217"/>
-      <c r="G33" s="218"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="217"/>
       <c r="H33" s="122"/>
       <c r="I33" s="122"/>
       <c r="J33" s="122"/>
@@ -6054,8 +6054,8 @@
       <c r="E34" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="214"/>
-      <c r="G34" s="215"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="206"/>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1">
       <c r="A35" s="98">
@@ -6073,8 +6073,8 @@
       <c r="E35" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="214"/>
-      <c r="G35" s="215"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="206"/>
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1">
       <c r="A36" s="104"/>
@@ -6087,10 +6087,10 @@
       <c r="H36" s="106"/>
     </row>
     <row r="37" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B37" s="203" t="s">
+      <c r="B37" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="203"/>
+      <c r="C37" s="210"/>
       <c r="D37" s="92"/>
       <c r="E37" s="92"/>
       <c r="F37" s="92"/>
@@ -6114,15 +6114,15 @@
       <c r="B39" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="216" t="s">
+      <c r="C39" s="215" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="216"/>
-      <c r="E39" s="216" t="s">
+      <c r="D39" s="215"/>
+      <c r="E39" s="215" t="s">
         <v>169</v>
       </c>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
       <c r="H39" s="97" t="s">
         <v>170</v>
       </c>
@@ -6134,15 +6134,15 @@
       <c r="B40" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="213" t="s">
+      <c r="C40" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="213"/>
-      <c r="E40" s="213" t="s">
+      <c r="D40" s="218"/>
+      <c r="E40" s="218" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
       <c r="H40" s="107"/>
     </row>
     <row r="41" spans="1:12" ht="34.5" customHeight="1">
@@ -6152,15 +6152,15 @@
       <c r="B41" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="213" t="s">
+      <c r="C41" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="D41" s="213"/>
-      <c r="E41" s="213" t="s">
+      <c r="D41" s="218"/>
+      <c r="E41" s="218" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
+      <c r="F41" s="218"/>
+      <c r="G41" s="218"/>
       <c r="H41" s="107"/>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1">
@@ -6170,15 +6170,15 @@
       <c r="B42" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="213" t="s">
+      <c r="C42" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="213"/>
-      <c r="E42" s="213" t="s">
+      <c r="D42" s="218"/>
+      <c r="E42" s="218" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213"/>
+      <c r="F42" s="218"/>
+      <c r="G42" s="218"/>
       <c r="H42" s="107"/>
     </row>
     <row r="43" spans="1:12">
@@ -6190,10 +6190,10 @@
       <c r="G43" s="96"/>
     </row>
     <row r="44" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B44" s="203" t="s">
+      <c r="B44" s="210" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="203"/>
+      <c r="C44" s="210"/>
       <c r="D44" s="92"/>
       <c r="E44" s="92"/>
       <c r="F44" s="92"/>
@@ -6211,25 +6211,25 @@
       <c r="G45" s="96"/>
     </row>
     <row r="46" spans="1:12" s="111" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="204" t="s">
+      <c r="A46" s="221" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="206" t="s">
+      <c r="B46" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="208" t="s">
+      <c r="C46" s="213" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="209"/>
-      <c r="E46" s="209"/>
-      <c r="F46" s="210"/>
-      <c r="G46" s="211" t="s">
+      <c r="D46" s="225"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="214"/>
+      <c r="G46" s="226" t="s">
         <v>144</v>
       </c>
-      <c r="H46" s="211" t="s">
+      <c r="H46" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="201" t="s">
+      <c r="I46" s="219" t="s">
         <v>178</v>
       </c>
       <c r="J46" s="110"/>
@@ -6237,8 +6237,8 @@
       <c r="L46" s="110"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="205"/>
-      <c r="B47" s="207"/>
+      <c r="A47" s="222"/>
+      <c r="B47" s="224"/>
       <c r="C47" s="112" t="s">
         <v>153</v>
       </c>
@@ -6251,13 +6251,13 @@
       <c r="F47" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="202"/>
+      <c r="G47" s="227"/>
+      <c r="H47" s="227"/>
+      <c r="I47" s="220"/>
     </row>
     <row r="48" spans="1:12" ht="39.6">
-      <c r="A48" s="205"/>
-      <c r="B48" s="207"/>
+      <c r="A48" s="222"/>
+      <c r="B48" s="224"/>
       <c r="C48" s="126" t="s">
         <v>179</v>
       </c>
@@ -6369,6 +6369,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -6381,26 +6401,6 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
   </mergeCells>
   <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -6438,21 +6438,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -6617,24 +6602,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6651,4 +6634,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>